--- a/MesAdmin/Template/A1/处理方式基础信息.xlsx
+++ b/MesAdmin/Template/A1/处理方式基础信息.xlsx
@@ -16,10 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
-    <t>故障代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -28,9 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GZ0091</t>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,14 +40,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>处理方</t>
+    <t>故障名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操纵杆轴承未压装到位</t>
+  </si>
+  <si>
+    <t>处理方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,12 +70,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF606266"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -84,12 +79,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -98,11 +108,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -410,62 +420,66 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="3" customWidth="1"/>
-    <col min="2" max="3" width="18.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
